--- a/P3-paper.xlsx
+++ b/P3-paper.xlsx
@@ -100,16 +100,16 @@
         <v>40.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.0307982430750097E8</v>
+        <v>-0.05799631523940837</v>
       </c>
       <c r="C3" t="n">
-        <v>3.089654017945324E7</v>
+        <v>0.25613130496045045</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.2557286143480346E7</v>
+        <v>0.006036182526246385</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.5753275095657632E7</v>
+        <v>0.0013465375327446026</v>
       </c>
     </row>
     <row r="4">
@@ -117,16 +117,16 @@
         <v>60.0</v>
       </c>
       <c r="B4" t="n">
-        <v>5.299585896179648E9</v>
+        <v>0.2877774097884607</v>
       </c>
       <c r="C4" t="n">
-        <v>7.223793787898703E8</v>
+        <v>-0.020431531150612477</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.7020910384736876E9</v>
+        <v>0.025978027861670805</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.683191411037731E8</v>
+        <v>0.012129974335034956</v>
       </c>
     </row>
     <row r="5">
@@ -134,16 +134,16 @@
         <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>2.1157823479879382E11</v>
+        <v>0.3052044559327497</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3795918123751331E10</v>
+        <v>0.1073081467645434</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.078745054877621E11</v>
+        <v>0.022893740096570653</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.033943797894176E9</v>
+        <v>0.018766635186817805</v>
       </c>
     </row>
   </sheetData>

--- a/P3-paper.xlsx
+++ b/P3-paper.xlsx
@@ -72,9 +72,21 @@
         <v>-0.36356427067343605</v>
       </c>
       <c r="D1" t="n">
+        <v>0.22205855568969568</v>
+      </c>
+      <c r="E1" t="n">
+        <v>-0.2676400818474104</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.2097317701088138</v>
+      </c>
+      <c r="G1" t="n">
+        <v>-0.08108977547235607</v>
+      </c>
+      <c r="H1" t="n">
         <v>0.0033428603094511704</v>
       </c>
-      <c r="E1" t="n">
+      <c r="I1" t="n">
         <v>-0.006098521929050846</v>
       </c>
     </row>
@@ -89,9 +101,21 @@
         <v>0.3223167258829331</v>
       </c>
       <c r="D2" t="n">
+        <v>0.8208313167113023</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.3184592053935593</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.28602485353166124</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.10797576000684023</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.02089696291817654</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.015017482637613239</v>
       </c>
     </row>
@@ -106,9 +130,21 @@
         <v>0.25613130496045045</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3858170840654852</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08743756135326307</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.20123644082039763</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.006383749855936108</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.006036182526246385</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.0013465375327446026</v>
       </c>
     </row>
@@ -123,9 +159,21 @@
         <v>-0.020431531150612477</v>
       </c>
       <c r="D4" t="n">
+        <v>0.9247091302406066</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.16733211459839945</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3287442438307221</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0752957815168944</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.025978027861670805</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.012129974335034956</v>
       </c>
     </row>
@@ -140,9 +188,21 @@
         <v>0.1073081467645434</v>
       </c>
       <c r="D5" t="n">
+        <v>0.8867225880949939</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.36697751036576637</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.30857995141268607</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.11952707285183387</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.022893740096570653</v>
       </c>
-      <c r="E5" t="n">
+      <c r="I5" t="n">
         <v>0.018766635186817805</v>
       </c>
     </row>

--- a/P3-paper.xlsx
+++ b/P3-paper.xlsx
@@ -182,28 +182,28 @@
         <v>100.0</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3052044559327497</v>
+        <v>0.30520445591889456</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1073081467645434</v>
+        <v>0.10730814684673866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8867225880949939</v>
+        <v>0.886722588008594</v>
       </c>
       <c r="E5" t="n">
-        <v>0.36697751036576637</v>
+        <v>0.36697751002983603</v>
       </c>
       <c r="F5" t="n">
-        <v>0.30857995141268607</v>
+        <v>0.3085799514303702</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11952707285183387</v>
+        <v>0.11952707308138576</v>
       </c>
       <c r="H5" t="n">
-        <v>0.022893740096570653</v>
+        <v>0.022893740099460467</v>
       </c>
       <c r="I5" t="n">
-        <v>0.018766635186817805</v>
+        <v>0.01876663557668522</v>
       </c>
     </row>
   </sheetData>
